--- a/doc/30_詳細設計/01_画面系/【CS】詳細設計_画面項目定義書.xlsx
+++ b/doc/30_詳細設計/01_画面系/【CS】詳細設計_画面項目定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\30_詳細設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ECAC04-64F4-407E-951B-79312888A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277A3A02-1A02-4F9D-82A1-9448CB0D58B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -2715,7 +2715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -3019,24 +3019,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3082,6 +3064,18 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3090,9 +3084,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3448,7 +3439,7 @@
   </sheetPr>
   <dimension ref="E6:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
@@ -5580,8 +5571,8 @@
   </sheetPr>
   <dimension ref="C1:S64"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="53" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35:L35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScale="85" zoomScaleNormal="53" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -7375,8 +7366,8 @@
   </sheetPr>
   <dimension ref="C1:S62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C3" zoomScale="85" zoomScaleNormal="53" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:S26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="53" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -7631,11 +7622,11 @@
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57"/>
-      <c r="G11" s="105" t="s">
+      <c r="G11" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="55" t="s">
         <v>19</v>
       </c>
@@ -7804,21 +7795,21 @@
       <c r="C17" s="18">
         <v>11</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53" t="s">
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
       <c r="M17" s="94">
         <v>2</v>
       </c>
@@ -7833,21 +7824,21 @@
       <c r="C18" s="18">
         <v>12</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="59" t="s">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="53" t="s">
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
       <c r="M18" s="94">
         <v>50</v>
       </c>
@@ -7862,52 +7853,52 @@
       <c r="C19" s="18">
         <v>13</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="94" t="s">
         <v>119</v>
       </c>
       <c r="H19" s="95"/>
       <c r="I19" s="100"/>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="94">
         <v>8</v>
       </c>
       <c r="N19" s="95"/>
       <c r="O19" s="100"/>
-      <c r="P19" s="59" t="s">
+      <c r="P19" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="57"/>
     </row>
     <row r="20" spans="3:19">
       <c r="C20" s="18">
         <v>14</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="94" t="s">
         <v>122</v>
       </c>
       <c r="H20" s="95"/>
       <c r="I20" s="100"/>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
       <c r="M20" s="94" t="s">
         <v>103</v>
       </c>
@@ -7922,21 +7913,21 @@
       <c r="C21" s="18">
         <v>15</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="108" t="s">
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="53" t="s">
+      <c r="H21" s="95"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
       <c r="M21" s="94">
         <v>50</v>
       </c>
@@ -7971,56 +7962,56 @@
       </c>
       <c r="N22" s="95"/>
       <c r="O22" s="100"/>
-      <c r="P22" s="59" t="s">
+      <c r="P22" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="57"/>
     </row>
     <row r="23" spans="3:19">
       <c r="C23" s="18">
         <v>17</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53" t="s">
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="55" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="56"/>
       <c r="O23" s="57"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="61"/>
     </row>
     <row r="24" spans="3:19">
       <c r="C24" s="18">
         <v>18</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53" t="s">
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
       <c r="J24" s="55" t="s">
         <v>20</v>
       </c>
@@ -8031,12 +8022,12 @@
       </c>
       <c r="N24" s="56"/>
       <c r="O24" s="57"/>
-      <c r="P24" s="53" t="s">
+      <c r="P24" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="54"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="61"/>
     </row>
     <row r="25" spans="3:19">
       <c r="C25" s="18">
@@ -9210,11 +9201,11 @@
     </row>
     <row r="6" spans="3:19" ht="18.600000000000001" thickBot="1">
       <c r="C6" s="77"/>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
       <c r="G6" s="79" t="s">
         <v>14</v>
       </c>
@@ -9235,11 +9226,11 @@
       <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="57" t="s">
         <v>18</v>
       </c>
@@ -9266,16 +9257,16 @@
       <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="120" t="s">
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
       <c r="J8" s="53" t="s">
         <v>19</v>
       </c>
@@ -9297,16 +9288,16 @@
       <c r="C9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120" t="s">
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
       <c r="J9" s="53" t="s">
         <v>204</v>
       </c>
@@ -9326,16 +9317,16 @@
       <c r="C10" s="18">
         <v>4</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="116" t="s">
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="53" t="s">
         <v>19</v>
       </c>
@@ -9357,16 +9348,16 @@
       <c r="C11" s="18">
         <v>5</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="113" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="116" t="s">
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
       <c r="J11" s="53" t="s">
         <v>19</v>
       </c>
@@ -9391,11 +9382,11 @@
       </c>
       <c r="E12" s="59"/>
       <c r="F12" s="59"/>
-      <c r="G12" s="116" t="s">
+      <c r="G12" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="112"/>
       <c r="J12" s="53" t="s">
         <v>19</v>
       </c>
@@ -9422,11 +9413,11 @@
       </c>
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
-      <c r="G13" s="116" t="s">
+      <c r="G13" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="53" t="s">
         <v>19</v>
       </c>
@@ -9451,11 +9442,11 @@
       </c>
       <c r="E14" s="59"/>
       <c r="F14" s="59"/>
-      <c r="G14" s="114" t="s">
+      <c r="G14" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="H14" s="114"/>
-      <c r="I14" s="115"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
       <c r="J14" s="53" t="s">
         <v>19</v>
       </c>
@@ -9482,11 +9473,11 @@
       </c>
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
-      <c r="G15" s="114" t="s">
+      <c r="G15" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="109"/>
       <c r="J15" s="53" t="s">
         <v>19</v>
       </c>
@@ -9511,11 +9502,11 @@
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="57"/>
-      <c r="G16" s="113" t="s">
+      <c r="G16" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="53" t="s">
         <v>19</v>
       </c>
@@ -9542,11 +9533,11 @@
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="57"/>
-      <c r="G17" s="113" t="s">
+      <c r="G17" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="53" t="s">
         <v>19</v>
       </c>
@@ -9571,11 +9562,11 @@
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="57"/>
-      <c r="G18" s="113" t="s">
+      <c r="G18" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="H18" s="114"/>
-      <c r="I18" s="115"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109"/>
       <c r="J18" s="53" t="s">
         <v>19</v>
       </c>
@@ -9602,11 +9593,11 @@
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="113" t="s">
+      <c r="G19" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="109"/>
       <c r="J19" s="53" t="s">
         <v>224</v>
       </c>
@@ -9633,12 +9624,12 @@
       </c>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="112" t="s">
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106" t="s">
         <v>228</v>
       </c>
       <c r="K20" s="53"/>
@@ -9664,12 +9655,12 @@
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
-      <c r="G21" s="111" t="s">
+      <c r="G21" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112" t="s">
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106" t="s">
         <v>228</v>
       </c>
       <c r="K21" s="53"/>
@@ -9700,7 +9691,7 @@
       </c>
       <c r="H22" s="53"/>
       <c r="I22" s="53"/>
-      <c r="J22" s="112" t="s">
+      <c r="J22" s="106" t="s">
         <v>204</v>
       </c>
       <c r="K22" s="53"/>
@@ -9731,7 +9722,7 @@
       </c>
       <c r="H23" s="59"/>
       <c r="I23" s="59"/>
-      <c r="J23" s="112" t="s">
+      <c r="J23" s="106" t="s">
         <v>228</v>
       </c>
       <c r="K23" s="53"/>
@@ -9762,7 +9753,7 @@
       </c>
       <c r="H24" s="95"/>
       <c r="I24" s="100"/>
-      <c r="J24" s="112" t="s">
+      <c r="J24" s="106" t="s">
         <v>228</v>
       </c>
       <c r="K24" s="53"/>
@@ -10867,8 +10858,8 @@
   </sheetPr>
   <dimension ref="C1:S62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="53" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:F26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="53" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18"/>
@@ -11003,7 +10994,7 @@
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="120" t="s">
         <v>249</v>
       </c>
       <c r="H7" s="53"/>
@@ -11034,7 +11025,7 @@
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="57"/>
-      <c r="G8" s="124" t="s">
+      <c r="G8" s="118" t="s">
         <v>189</v>
       </c>
       <c r="H8" s="56"/>
@@ -11060,7 +11051,7 @@
       <c r="C9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="119" t="s">
         <v>191</v>
       </c>
       <c r="E9" s="56"/>
@@ -11094,11 +11085,11 @@
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="57"/>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="55" t="s">
         <v>19</v>
       </c>
@@ -11143,7 +11134,7 @@
       <c r="P11" s="94"/>
       <c r="Q11" s="95"/>
       <c r="R11" s="95"/>
-      <c r="S11" s="126"/>
+      <c r="S11" s="124"/>
     </row>
     <row r="12" spans="3:19">
       <c r="C12" s="18">
@@ -11203,7 +11194,7 @@
       <c r="P13" s="94"/>
       <c r="Q13" s="95"/>
       <c r="R13" s="95"/>
-      <c r="S13" s="126"/>
+      <c r="S13" s="124"/>
     </row>
     <row r="14" spans="3:19">
       <c r="C14" s="18">
@@ -11240,11 +11231,11 @@
       <c r="C15" s="18">
         <v>9</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37" t="s">
+      <c r="D15" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="36"/>
       <c r="H15" s="37" t="s">
         <v>194</v>
@@ -12264,7 +12255,8 @@
     <filterColumn colId="14" showButton="0"/>
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
-  <mergeCells count="282">
+  <mergeCells count="283">
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="D62:F62"/>
     <mergeCell ref="G62:I62"/>
     <mergeCell ref="J62:L62"/>
@@ -12942,8 +12934,8 @@
       <c r="G15" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="55" t="s">
         <v>19</v>
       </c>
@@ -12971,8 +12963,8 @@
       <c r="G16" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="55" t="s">
         <v>19</v>
       </c>
